--- a/output/aid_debt_by_sector.xlsx
+++ b/output/aid_debt_by_sector.xlsx
@@ -9,9 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="aid_debt_by_sector" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="data_limitations" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aid_debt_by_sector!$A$1:$E$43</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">data_limitations!$A$1:$D$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t xml:space="preserve">SectorCode</t>
   </si>
@@ -164,6 +166,51 @@
   </si>
   <si>
     <t xml:space="preserve">IX. Unallocated / Unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD_Disbursement_Defl_original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD_Disbursement_Defl_with_commit_dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. Social Infrastructure &amp; Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.1. Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.2. Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.5. Government &amp; Civil Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II. Economic Infrastructure &amp; Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II.3. Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III. Production Sectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III.1. Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III.2. Industry, Mining, Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV. Multi-Sector / Cross-Cutting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sectors not specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIII. Humanitarian Aid</t>
   </si>
 </sst>
 </file>
@@ -180,6 +227,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -201,14 +249,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,6 +325,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,6 +349,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -297,10 +364,10 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.63"/>
@@ -1049,4 +1116,815 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1762.38680499999</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1690.60224899999</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.959268557959955</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>164076.348497001</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>148121.681869</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.902760716129099</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>66404.1610680002</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>59402.1409340004</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.894554497468472</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>79360.5604109995</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>70612.1517580002</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.889763774251439</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>25405.2769809999</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>22556.862944</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.887881008377504</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>86428.0304830002</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>76438.591245</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.88441898788883</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>85728.7205760019</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>73169.8784900013</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.853504846431639</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>169566.275758</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>143300.594972002</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.845100798088625</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>39946.360505</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>33685.8973040001</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.843278258097722</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>189962.646744006</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>158779.507842005</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.835845944260698</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>95945.3398459999</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>79811.4039960006</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.831842423239153</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>171588.830938005</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>142684.741817001</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.831550288191851</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>330082.344110997</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>274005.210184</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.830111682955873</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>232847.271637008</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>192488.728528001</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.826673755611264</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>18429.4147259999</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>15152.5524849999</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.822193906332951</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>414901.992959013</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>339879.272737009</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.819179658099604</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>111.903116</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>91.346046</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.816295821467563</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>353428.672452015</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>287547.306787</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.813593602330157</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>8528.05020600001</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>6922.39833199996</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.811721104447724</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>4879.51935799999</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>3922.769404</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.803925369733108</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>218030.486866002</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>174689.503109</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.801215947457665</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>29734.2939790002</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>23804.4161110001</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0.800571088986067</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>82972.2571829974</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>66416.5453549989</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0.800466898333446</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45873.294751</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>36457.751434</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.794748919428886</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>211041.035298002</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>164673.443989008</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0.780291111425227</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>66869.2394769992</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>52046.7545469995</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0.778336271715815</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>92437.3248299992</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>71540.8370370012</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.773938851741668</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>161684.989132012</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>124978.470152999</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0.772975096970545</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>56979.1572420012</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>43859.4426730007</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0.769745373500724</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>211850.71995001</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>161951.031289998</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0.764458253095447</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>158318.209891</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>120502.549344999</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0.761141434254239</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>23244.1689540001</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>16962.01395</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>0.729732002188059</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>26852.5222339999</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>19476.8432639996</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0.725326399295875</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>70563.5251550028</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>50271.7617840022</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0.712432686342882</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>199101.81758</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>137412.542906</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0.690162172180008</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>36011.7601050003</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>24462.8206610001</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>0.679300889200452</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>221553.278728003</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>143364.300885001</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>0.647087245596608</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>31494.0413660001</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>19453.218303</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>0.617679327874416</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>8499.166655</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>4822.58015100001</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>0.567418000700447</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>113200.4105</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>60700.0134670003</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>0.536217255740432</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>2524.223606</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1349.280396</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>0.534532833300823</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3792.98987000001</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1880.030745</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.495659310843348</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>741.490346</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>19.800004</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>67.033919</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>164.684263</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>6190.619778</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>687.309694</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1214.330699</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>17.578996</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>794.526459</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>15.710377</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>63826.280342</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>13.902189</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D56"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>